--- a/data/survey_table.xlsx
+++ b/data/survey_table.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20351"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshannon\Google Drive\Academic\Research\Community Mapping Lab\HDRC_GICH\Community data\CURO-GICH_chase\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jshannon\Google Drive\Academic\Research\Community Mapping Lab\HDRC_GICH\CURO-GICH_chasep\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{8333291A-14DC-4640-A998-55C4D45E77AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E044770E-DD35-4485-B90A-4DAAC87C2EE9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey_table" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -221,7 +221,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -835,30 +835,15 @@
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -866,6 +851,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1221,7 +1221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1762,11 +1762,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,95 +1777,117 @@
     <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="10"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11"/>
+      <c r="B1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14" t="s">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="15"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>29.6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>16.600000000000001</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="2">
         <v>12.9</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="2">
         <v>7.6</v>
       </c>
-      <c r="G3" s="3">
+      <c r="G3" s="2">
         <v>25.2</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="2">
         <v>7</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="3">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="K3">
+        <f>C3-$I3</f>
+        <v>13.5</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:P3" si="0">D3-$I3</f>
+        <v>0.5</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="0"/>
+        <v>-3.2000000000000011</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>-8.5000000000000018</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="0"/>
+        <v>9.0999999999999979</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="0"/>
+        <v>-9.1000000000000014</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>23.4</v>
       </c>
@@ -1881,120 +1903,226 @@
       <c r="H4" s="1">
         <v>12.8</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="4">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8" t="s">
+      <c r="L4">
+        <f t="shared" ref="L4:L23" si="1">D4-$I4</f>
+        <v>8.3999999999999986</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M23" si="2">E4-$I4</f>
+        <v>5.6000000000000014</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N23" si="3">F4-$I4</f>
+        <v>-2</v>
+      </c>
+      <c r="O4">
+        <f t="shared" ref="O4:O23" si="4">G4-$I4</f>
+        <v>12.8</v>
+      </c>
+      <c r="P4">
+        <f t="shared" ref="P4:P23" si="5">H4-$I4</f>
+        <v>-2.1999999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15"/>
+      <c r="B5" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>7.1</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="5">
         <v>4.2</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="5">
         <v>15.8</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>6.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="K5">
+        <f t="shared" ref="K4:K23" si="6">C5-$I5</f>
+        <v>10.200000000000001</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>-4.7</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>0.19999999999999929</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>-2.7</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>8.9</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="5"/>
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>10.7</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>1.3</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>13.1</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <v>7.1</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>22.8</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>9.4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="3">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="K6">
+        <f t="shared" si="6"/>
+        <v>3.0999999999999996</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>-6.3</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="4"/>
+        <v>15.200000000000001</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15"/>
+      <c r="B7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>8</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="5">
         <v>3.5</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="5">
         <v>13.6</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="5">
         <v>2.6</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="L7">
+        <f t="shared" si="1"/>
+        <v>-2.7</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="2"/>
+        <v>5.3</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="5"/>
+        <v>-0.10000000000000009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>5.2</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>6.6</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>26.8</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="3">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>1.8999999999999995</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="3"/>
+        <v>3.3999999999999995</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>23.6</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>-2.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
       <c r="B9" s="1" t="s">
         <v>45</v>
       </c>
@@ -2016,12 +2144,36 @@
       <c r="H9" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>6.6999999999999993</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>-2.6</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="2"/>
+        <v>-9.9999999999999645E-2</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="3"/>
+        <v>-3.4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>7.4</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="5"/>
+        <v>-1.5999999999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>46</v>
       </c>
@@ -2039,12 +2191,32 @@
       <c r="H10" s="1">
         <v>2.8</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="4">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>-2.6</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="3"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>9.9</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0.19999999999999973</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
       <c r="B11" s="1" t="s">
         <v>47</v>
       </c>
@@ -2062,64 +2234,128 @@
       <c r="H11" s="1">
         <v>2.6</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="4">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8" t="s">
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>3.1000000000000005</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="3"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>10.899999999999999</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="5"/>
+        <v>0.30000000000000027</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15"/>
+      <c r="B12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="5">
         <v>29.3</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="5">
         <v>11.7</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>5.8</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="5">
         <v>6.8</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="5">
         <v>20.2</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="5">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="K12">
+        <f t="shared" si="6"/>
+        <v>16.200000000000003</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="1"/>
+        <v>-1.4000000000000004</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="2"/>
+        <v>-7.3</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="3"/>
+        <v>-6.3</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>-4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2">
         <v>13.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>11</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>26.6</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>8.9</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+      <c r="L13">
+        <f t="shared" si="1"/>
+        <v>-5.7</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="2"/>
+        <v>7.8</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="3"/>
+        <v>5.3</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="4"/>
+        <v>20.900000000000002</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="5"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2141,64 +2377,132 @@
       <c r="H14" s="1">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="4">
         <v>7.6</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8" t="s">
+      <c r="K14">
+        <f t="shared" si="6"/>
+        <v>9.6</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="1"/>
+        <v>-4.8</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="2"/>
+        <v>-0.19999999999999929</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="3"/>
+        <v>-4.1999999999999993</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000011</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15"/>
+      <c r="B15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>18.3</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="5">
         <v>10.1</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="5">
         <v>24.9</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="5">
         <v>6.8</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="L15">
+        <f t="shared" si="1"/>
+        <v>-6.1</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="2"/>
+        <v>12.200000000000001</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="4"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="5"/>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="2">
         <v>10.5</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>6.6</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>12.7</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>8.1</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="2">
         <v>18.600000000000001</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <v>6</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="3">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="K16">
+        <f t="shared" si="6"/>
+        <v>1.9000000000000004</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="2"/>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="3"/>
+        <v>-0.5</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="4"/>
+        <v>10.000000000000002</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="5"/>
+        <v>-2.5999999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
       <c r="B17" s="1" t="s">
         <v>51</v>
       </c>
@@ -2220,12 +2524,36 @@
       <c r="H17" s="1">
         <v>5</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="4">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="K17">
+        <f t="shared" si="6"/>
+        <v>6.7000000000000011</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="1"/>
+        <v>-1.7999999999999998</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="2"/>
+        <v>-1.1999999999999993</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="3"/>
+        <v>-4.1999999999999993</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="4"/>
+        <v>4.3000000000000007</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="5"/>
+        <v>-0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
       <c r="B18" s="1" t="s">
         <v>52</v>
       </c>
@@ -2247,70 +2575,130 @@
       <c r="H18" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="4">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8" t="s">
+      <c r="K18">
+        <f t="shared" si="6"/>
+        <v>6.2000000000000011</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="1"/>
+        <v>-1.2999999999999998</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="2"/>
+        <v>-0.39999999999999947</v>
+      </c>
+      <c r="N18">
+        <f t="shared" si="3"/>
+        <v>-3.8</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="4"/>
+        <v>7.1</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="5"/>
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="15"/>
+      <c r="B19" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8">
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>19.2</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="5">
         <v>10.5</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="5">
         <v>29.2</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="5">
         <v>8.5</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="L19">
+        <f t="shared" si="1"/>
+        <v>-6.7</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="2"/>
+        <v>12.5</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="3"/>
+        <v>3.8</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="4"/>
+        <v>22.5</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="5"/>
+        <v>1.7999999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="E20" s="2">
         <v>0</v>
       </c>
-      <c r="D20" s="3">
-        <v>8.4</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="F20" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="G20" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="H20" s="2">
         <v>0</v>
       </c>
-      <c r="F20" s="3">
-        <v>2.1</v>
-      </c>
-      <c r="G20" s="3">
-        <v>9.4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="5"/>
+      <c r="L20">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="2"/>
+        <v>-3.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="3"/>
+        <v>-1.4</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="4"/>
+        <v>5.9</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="5"/>
+        <v>-3.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1">
         <v>16</v>
       </c>
@@ -2326,18 +2714,36 @@
       <c r="H21" s="1">
         <v>0</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="4">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="L21">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="2"/>
+        <v>-6.5</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="3"/>
+        <v>0.29999999999999982</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="4"/>
+        <v>5.5</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="5"/>
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
       <c r="B22" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1">
         <v>8.1</v>
       </c>
@@ -2353,46 +2759,110 @@
       <c r="H22" s="1">
         <v>0</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="4">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8" t="s">
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>4.6999999999999993</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="2"/>
+        <v>-3.4</v>
+      </c>
+      <c r="N22">
+        <f t="shared" si="3"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="5"/>
+        <v>-3.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="E23" s="5">
         <v>0</v>
       </c>
-      <c r="D23" s="8">
-        <v>16.8</v>
-      </c>
-      <c r="E23" s="8">
+      <c r="F23" s="5">
+        <v>8.4</v>
+      </c>
+      <c r="G23" s="5">
+        <v>12.7</v>
+      </c>
+      <c r="H23" s="5">
         <v>0</v>
       </c>
-      <c r="F23" s="8">
-        <v>8.4</v>
-      </c>
-      <c r="G23" s="8">
-        <v>12.7</v>
-      </c>
-      <c r="H23" s="8">
-        <v>0</v>
-      </c>
-      <c r="I23" s="9">
+      <c r="I23" s="6">
         <v>7</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="2"/>
+        <v>-7</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="3"/>
+        <v>1.4000000000000004</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="4"/>
+        <v>5.6999999999999993</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="K24">
+        <f>AVERAGE(K3:K23)</f>
+        <v>8.2333333333333343</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ref="L24:P24" si="7">AVERAGE(L3:L23)</f>
+        <v>-0.53809523809523829</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="7"/>
+        <v>1.4523809523809523</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="7"/>
+        <v>-0.74285714285714299</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>10.723809523809523</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="7"/>
+        <v>-1.8666666666666665</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
